--- a/Data/Processed/Angiosperms/missing_powo_ipni/Nyctaginaceae.xlsx
+++ b/Data/Processed/Angiosperms/missing_powo_ipni/Nyctaginaceae.xlsx
@@ -2907,7 +2907,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3380,7 +3380,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -3908,7 +3908,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -5426,7 +5426,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -7462,7 +7462,7 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -7540,7 +7540,7 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
